--- a/output/record_20240701_20240731.xlsx
+++ b/output/record_20240701_20240731.xlsx
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>20</v>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>38.9</v>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>-38.9</v>
+        <v>-89.21999999999935</v>
       </c>
     </row>
     <row r="17">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>-108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>-33</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="41">
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>50</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>100</v>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>100</v>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>121</v>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>120.32</v>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>-120.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>13</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">

--- a/output/record_20240701_20240731.xlsx
+++ b/output/record_20240701_20240731.xlsx
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>-89.21999999999935</v>
+        <v>-126.2199999999993</v>
       </c>
     </row>
     <row r="17">
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>50</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>13</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="70">
